--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0DF79-AD80-4AC7-B8CF-2382655A623E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="PropertyDetails" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Url</t>
   </si>
@@ -59,17 +61,91 @@
   </si>
   <si>
     <t>Zhang</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetRent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FloorArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bedroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bathroom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParkingSpace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearBuilt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RentType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Mogan\source\repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morgan House</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Housing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Canberra Avenue, Lynfield, Auckland, New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Condition</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -79,6 +155,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,21 +471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -424,7 +507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -436,72 +519,188 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C93F54-9F2D-4B35-9A59-17906290458E}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2015</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0DF79-AD80-4AC7-B8CF-2382655A623E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="PropertyDetails" sheetId="4" r:id="rId3"/>
+    <sheet name="FinanceDetails" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Url</t>
   </si>
@@ -87,65 +87,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bedroom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bathroom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParkingSpace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RentType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morgan House</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senior Housing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Canberra Avenue, Lynfield, Auckland, New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Condition</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Carparks</t>
   </si>
   <si>
     <t>YearBuilt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RentType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FilePath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Mogan\source\repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Morgan House</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Senior Housing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20 Canberra Avenue, Lynfield, Auckland, New Zealand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good Condition</t>
-  </si>
-  <si>
-    <t>Monthly</t>
+  </si>
+  <si>
+    <t>D:\Users\Morgan\Source\Repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>PurchasePrice</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>HomeValue</t>
+  </si>
+  <si>
+    <t>HomeValueType</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +174,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,13 +204,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,21 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,10 +543,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -532,23 +554,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,122 +607,185 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C93F54-9F2D-4B35-9A59-17906290458E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D2" s="2">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2">
+        <v>300</v>
+      </c>
+      <c r="F2" s="2">
+        <v>300</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2012</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2015</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>500</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>450</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D355EFF-1A9B-44A7-98A4-0316830708D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="PropertyDetails" sheetId="4" r:id="rId3"/>
     <sheet name="FinanceDetails" sheetId="5" r:id="rId4"/>
+    <sheet name="TenantDetails" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Url</t>
   </si>
@@ -126,9 +128,6 @@
     <t>YearBuilt</t>
   </si>
   <si>
-    <t>D:\Users\Morgan\Source\Repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
-  </si>
-  <si>
     <t>Bedrooms</t>
   </si>
   <si>
@@ -151,17 +150,69 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>C:\Users\Mogan\source\repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paymentfrequency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaymentDueDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TenantEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMainTenant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@test.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duraion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RentAmount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +225,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -204,7 +255,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,10 +264,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,21 +547,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -529,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,10 +597,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -554,23 +608,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -607,40 +661,38 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="79" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -660,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>27</v>
@@ -681,7 +733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -719,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -729,43 +781,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>500</v>
       </c>
@@ -776,7 +828,7 @@
         <v>450</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -786,6 +838,90 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61724BB8-997A-436C-BF1D-5E5F046F5812}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B5785CEA-4456-42FD-9820-F38C1B1323A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D355EFF-1A9B-44A7-98A4-0316830708D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE6CE52-D5FF-46BD-B59B-3C38F6CCECEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="PropertyDetails" sheetId="4" r:id="rId3"/>
     <sheet name="FinanceDetails" sheetId="5" r:id="rId4"/>
     <sheet name="TenantDetails" sheetId="6" r:id="rId5"/>
+    <sheet name="ListRentalProperty" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Url</t>
   </si>
@@ -201,6 +202,42 @@
   </si>
   <si>
     <t>RentAmount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectProperty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetRent </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FurnishingAvailableDate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdealTenant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OccupantsCount </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetsAllowed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -924,4 +961,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F11A0-F139-4109-A46A-513C0A7EE5FD}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE6CE52-D5FF-46BD-B59B-3C38F6CCECEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3277327-849A-4C41-8DDF-9716A60EA7B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Url</t>
   </si>
@@ -213,31 +213,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MovingCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TargetRent </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FurnishingAvailableDate </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IdealTenant</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">OccupantsCount </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PetsAllowed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Mogan\Source\Repos\ICOnboardingTask\Keys_Onboarding\Photos\02.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Canberra Avenue, Lynfield, Auckland, 1042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furnishing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Done For You</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuaminZhang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Conditions enjoy you guys.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailableDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OccupantsCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -965,13 +989,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F11A0-F139-4109-A46A-513C0A7EE5FD}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -981,28 +1018,63 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" t="s">
-        <v>59</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3277327-849A-4C41-8DDF-9716A60EA7B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -14,6 +13,7 @@
     <sheet name="FinanceDetails" sheetId="5" r:id="rId4"/>
     <sheet name="TenantDetails" sheetId="6" r:id="rId5"/>
     <sheet name="ListRentalProperty" sheetId="7" r:id="rId6"/>
+    <sheet name="RentalProperties" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Url</t>
   </si>
@@ -153,10 +153,6 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>C:\Users\Mogan\source\repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LastName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,10 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\Mogan\Source\Repos\ICOnboardingTask\Keys_Onboarding\Photos\02.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20 Canberra Avenue, Lynfield, Auckland, 1042</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,17 +255,29 @@
   <si>
     <t>OccupantsCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\hzha321\Source\Repos\automationOnboardingSample-master\Keys_Onboarding\Photos\02.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\hzha321\Source\Repos\automationOnboardingSample-master\Keys_Onboarding\Photos\01.jpeg</t>
+  </si>
+  <si>
+    <t>SortBy</t>
+  </si>
+  <si>
+    <t>Latest Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -286,7 +290,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -608,21 +612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -644,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,10 +662,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -669,23 +673,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -722,38 +726,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="79" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -794,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -832,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -842,23 +848,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -878,7 +884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>500</v>
       </c>
@@ -906,63 +912,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61724BB8-997A-436C-BF1D-5E5F046F5812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>125</v>
@@ -971,7 +977,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>5</v>
@@ -980,7 +986,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B5785CEA-4456-42FD-9820-F38C1B1323A1}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -988,72 +994,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520F11A0-F139-4109-A46A-513C0A7EE5FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1062,19 +1068,19 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1082,4 +1088,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="TenantDetails" sheetId="6" r:id="rId5"/>
     <sheet name="ListRentalProperty" sheetId="7" r:id="rId6"/>
     <sheet name="RentalProperties" sheetId="8" r:id="rId7"/>
+    <sheet name="AddTenant" sheetId="9" r:id="rId8"/>
+    <sheet name="AddTenantDetails" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Url</t>
   </si>
@@ -205,10 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Title </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MovingCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -267,6 +265,48 @@
   </si>
   <si>
     <t>Latest Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>Morgan House</t>
+  </si>
+  <si>
+    <t>TenantEmail</t>
+  </si>
+  <si>
+    <t>IsMainTenant</t>
+  </si>
+  <si>
+    <t>Duraion</t>
+  </si>
+  <si>
+    <t>RentAmount</t>
+  </si>
+  <si>
+    <t>Paymentfrequency</t>
+  </si>
+  <si>
+    <t>PaymentDueDay</t>
+  </si>
+  <si>
+    <t>h@gmail.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>huahua</t>
+  </si>
+  <si>
+    <t>mumu</t>
   </si>
 </sst>
 </file>
@@ -838,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -997,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1021,31 +1061,31 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -1053,13 +1093,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1068,19 +1108,19 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
         <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1094,21 +1134,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB5D8CD-A858-427F-A791-DA6B87D2A50D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -255,12 +256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\hzha321\Source\Repos\automationOnboardingSample-master\Keys_Onboarding\Photos\02.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\hzha321\Source\Repos\automationOnboardingSample-master\Keys_Onboarding\Photos\01.jpeg</t>
-  </si>
-  <si>
     <t>SortBy</t>
   </si>
   <si>
@@ -307,17 +302,25 @@
   </si>
   <si>
     <t>mumu</t>
+  </si>
+  <si>
+    <t>C:\Users\Mogan\Source\Repos\ICOnboardingTask\Keys_Onboarding\Photos\02.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Mogan\Source\Repos\ICOnboardingTask\Keys_Onboarding\Photos\01.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +333,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,21 +655,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,10 +705,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -713,23 +716,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -766,40 +769,40 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="79" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -840,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -878,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -888,23 +891,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -924,7 +927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>500</v>
       </c>
@@ -952,26 +955,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="2"/>
-    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -1026,7 +1029,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1034,37 +1037,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
         <v>51</v>
@@ -1091,7 +1094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1131,80 +1134,83 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1213,30 +1219,30 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -1252,8 +1258,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
